--- a/data/additional/simplified/indirect/tsv/metadata_indirect.xlsx
+++ b/data/additional/simplified/indirect/tsv/metadata_indirect.xlsx
@@ -1,23 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_RW\corpus\data\additional\simplified\indirect\tsv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5565AF20-A333-4703-90C0-9016F832B080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9075" yWindow="1620" windowWidth="24660" windowHeight="14400" xr2:uid="{8184E3B3-6768-47D5-9D50-5635465A3E84}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="metadata_indirect" localSheetId="0">Tabelle1!$A$1:$G$17</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{3702D7F5-338B-4341-8C11-5FABED89FC5F}" name="metadata_indirect" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="D:\GitHub_RW\corpus\data\additional\simplified\indirect\tsv\metadata_indirect.tsv" decimal="," thousands=".">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
@@ -30,179 +64,171 @@
     <t>title</t>
   </si>
   <si>
+    <t>periodical</t>
+  </si>
+  <si>
     <t>year</t>
   </si>
   <si>
+    <t>decade</t>
+  </si>
+  <si>
+    <t>fictional</t>
+  </si>
+  <si>
+    <t>rwk_digbib_938.tsv</t>
+  </si>
+  <si>
+    <t>Büchner, Luise</t>
+  </si>
+  <si>
+    <t>Die Geschichte vom Christkind Vogel</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>rwk_digbib_1041.tsv</t>
+  </si>
+  <si>
     <t>Christen, Ada</t>
   </si>
   <si>
+    <t>Nachbar Krippelmacher</t>
+  </si>
+  <si>
+    <t>rwk_digbib_1180.tsv</t>
+  </si>
+  <si>
     <t>Franzos, Karl Emil</t>
   </si>
   <si>
+    <t>Baron Schmule</t>
+  </si>
+  <si>
+    <t>rwk_digbib_1310.tsv</t>
+  </si>
+  <si>
     <t>Janitschek, Maria</t>
   </si>
   <si>
+    <t>Das neue Weib</t>
+  </si>
+  <si>
+    <t>rwk_digbib_1996.tsv</t>
+  </si>
+  <si>
     <t>Meyrink, Gustav</t>
   </si>
   <si>
+    <t>Der Mann auf der Flasche</t>
+  </si>
+  <si>
+    <t>rwk_digbib_2030.tsv</t>
+  </si>
+  <si>
     <t>Mörike, Eduard</t>
   </si>
   <si>
+    <t>Die Hand der Jezerte</t>
+  </si>
+  <si>
+    <t>rwk_digbib_2477.tsv</t>
+  </si>
+  <si>
     <t>Poe, Edgar Allan</t>
   </si>
   <si>
+    <t>Von Kempelen und seine Entdeckung</t>
+  </si>
+  <si>
+    <t>rwk_digbib_3004.tsv</t>
+  </si>
+  <si>
     <t>Schnitzler, Arthur</t>
   </si>
   <si>
-    <t>fictional</t>
-  </si>
-  <si>
-    <t>digbib_938</t>
-  </si>
-  <si>
-    <t>digbib_1041</t>
-  </si>
-  <si>
-    <t>digbib_1180</t>
-  </si>
-  <si>
-    <t>digbib_1310</t>
-  </si>
-  <si>
-    <t>digbib_1996</t>
-  </si>
-  <si>
-    <t>digbib_2030</t>
-  </si>
-  <si>
-    <t>digbib_2477</t>
-  </si>
-  <si>
-    <t>digbib_3004</t>
-  </si>
-  <si>
-    <t>mkhz_1852</t>
-  </si>
-  <si>
-    <t>mkhz_4995</t>
-  </si>
-  <si>
-    <t>mkhz_5942</t>
-  </si>
-  <si>
-    <t>mkhz_6380</t>
-  </si>
-  <si>
-    <t>mkhz_10560</t>
-  </si>
-  <si>
-    <t>mkhz_11194</t>
-  </si>
-  <si>
-    <t>mkhz_20044</t>
-  </si>
-  <si>
-    <t>mkhz_20363</t>
-  </si>
-  <si>
-    <t>decade</t>
-  </si>
-  <si>
-    <t>Büchner, Luise</t>
-  </si>
-  <si>
-    <t>Die Geschichte vom Christkind Vogel</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Nachbar Krippelmacher</t>
-  </si>
-  <si>
-    <t>Baron Schmule</t>
-  </si>
-  <si>
-    <t>Das neue Weib</t>
-  </si>
-  <si>
-    <t>Der Mann auf der Flasche</t>
-  </si>
-  <si>
-    <t>Die Hand der Jezerte</t>
-  </si>
-  <si>
-    <t>Von Kempelen und seine Entdeckung</t>
-  </si>
-  <si>
     <t>Der Sohn</t>
   </si>
   <si>
-    <t>periodical</t>
+    <t>rwk_mkhz_1852.tsv</t>
   </si>
   <si>
     <t>Die Parteien in Preußen. Die Ereignisse in Kurhessen. Deutschland. Belgien.</t>
   </si>
   <si>
-    <t>Theater-Festvorstellung am 2. December. Vorbereitungen zur Illumination. Personales. Aus dem Stadtverordneten-Collegium. Jubiläums-Fest-Concert des Musik-Vereins. Vom Männergesangverein. Turnhallen-Bau.(Eine Spende. Gastspiel. Vom ersten Olmützer Fischerei-Verein. Fabriksverkauf. Weihnachtsbescheerung an der Paulowitzer Volksschule. Silberne Hochzeit. Vom Sonntage. Vierhalle-Uebernahme. Von der freiw. Feuerwehr in Neustift. Fahrbegünstigung. Freiwillig dem Hungertode geweiht. Die Verpachtung der Mauthstellen in M.-Weißkirchen, Leipnik und Přaslawitz. Dilettantentheater in Hombok. Das letzte Jahr des Jahrhunderts. Gebissen.</t>
+    <t>bayerische</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>rwk_mkhz_4995.tsv</t>
+  </si>
+  <si>
+    <t>pfennig</t>
+  </si>
+  <si>
+    <t>rwk_mkhz_5942.tsv</t>
+  </si>
+  <si>
+    <t>Cabet, Étienne</t>
+  </si>
+  <si>
+    <t>Reise nach Ikarien (Fortsetzung). Erster Theil. Reise. Bericht. Beschreibung.</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>rwk_mkhz_6380.tsv</t>
+  </si>
+  <si>
+    <t>sonntagsblatt</t>
+  </si>
+  <si>
+    <t>rwk_mkhz_10560.tsv</t>
+  </si>
+  <si>
+    <t>Theater-Festvorstellung am 2. December. Vorbereitungen zur Illumination. Personales. Aus dem Stadtverordneten-Collegium. Jubiläums-Fest-Concert des Musik-Vereins. Vom Männergesangverein. Turnhallen-Bau.(Eine Spende. Gastspiel. Vom ersten Olmützer Fischerei-Verein. Fabriksverkauf. Weihnachtsbescheerung an der Paulowitzer Volksschule. Silberne Hochzeit. Vom Sonntage. Vierhalle-Uebernahme. Von der freiw. Feuerwehr in Neustift. Fahrbegünstigung. Freiwillig dem Hungertode geweiht. Die Verpachtung der Mauthstellen in M.-Weißkirchen, Leipnik und P?aslawitz. Dilettantentheater in Hombok. Das letzte Jahr des Jahrhunderts. Gebissen.</t>
+  </si>
+  <si>
+    <t>maehrisches</t>
+  </si>
+  <si>
+    <t>rwk_mkhz_11194.tsv</t>
   </si>
   <si>
     <t>Gemeinderat.(Sitzung vom 18. Juli.) Die Durchführung der Schulreform. Solenne Kundgebung für das friedliche Zusammenleben der Nationen. Aus dem Landesschulrat.(Sitzung vom 11. Juli 1914.) Frau Josefine Brunstein gestorben. Auszeichnung. Ernennungen. Von der Landesregierung. Aus dem Rathause. Zum Lemberger Hygiene-Kongreß. Szewczenkofeier. Zur neuen Militärstrafprozeßordnung. Kabarett der Gesellschaft der Kunstfreunde. Ernteurlaubertransport. Gewerbeverein „Cintracht“. Festnahme berüchtigter Taschendiebe. Unfall oder boshafte Tat? Selbstmordversuch wegen eines Hundes. Diebstahl. Pilzvergiftung.</t>
   </si>
   <si>
+    <t>czernowitzer</t>
+  </si>
+  <si>
+    <t>rwk_mkhz_20044.tsv</t>
+  </si>
+  <si>
     <t>— St. Gallen. — Oberland. — Gaster. — Gaster. — Amden. — Wattwil. — Schlag auf Schlag. — Uznach. — Eschenbach. — Milchverkäufe. — Landsturmeintheilung in Goldingen.</t>
   </si>
   <si>
+    <t>stgaller</t>
+  </si>
+  <si>
+    <t>rwk_mkhz_20363.tsv</t>
+  </si>
+  <si>
     <t>Gemeinderatssitzung. Eine Abordnung beim Bürgermeister. Spende. Eine große Südbahnerversammlung. Eine interessante Schaustellung. Malschule-Ausstellung. Studienreise. Das „Geisterhäusl“. Maschinelle Holzbearbeitung. Wolkenbruch und Überschwemmungen. Laudwirtschaftlicher Verein Rothwein. 8000 Kronen an unsere Hausfrauen ausbezahlt.</t>
   </si>
   <si>
-    <t>bayerische</t>
-  </si>
-  <si>
-    <t>pfennig</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>sonntagsblatt</t>
-  </si>
-  <si>
-    <t>maehrisches</t>
-  </si>
-  <si>
-    <t>czernowitzer</t>
-  </si>
-  <si>
-    <t>stgaller</t>
-  </si>
-  <si>
     <t>marburger</t>
-  </si>
-  <si>
-    <t>Cabet, Étienne</t>
-  </si>
-  <si>
-    <t>Reise nach Ikarien (Fortsetzung). Erster Theil. Reise. Bericht. Beschreibung.</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -230,9 +256,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -248,6 +273,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="metadata_indirect" connectionId="1" xr16:uid="{38AFFB70-6526-48BA-9038-7197E9911532}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -267,7 +296,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -279,7 +308,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -326,6 +355,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -361,6 +407,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,56 +575,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33208051-11FE-4DF5-9E76-AD75590CAA32}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1868</v>
@@ -570,18 +631,18 @@
         <v>1860</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
       </c>
       <c r="E3">
         <v>1884</v>
@@ -590,7 +651,7 @@
         <v>1880</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -598,10 +659,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>1877</v>
@@ -610,18 +671,18 @@
         <v>1870</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>1902</v>
@@ -630,18 +691,18 @@
         <v>1900</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1913</v>
@@ -650,18 +711,18 @@
         <v>1910</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1853</v>
@@ -670,18 +731,18 @@
         <v>1850</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>1849</v>
@@ -690,18 +751,18 @@
         <v>1840</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>1892</v>
@@ -710,18 +771,18 @@
         <v>1890</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>1850</v>
@@ -730,15 +791,15 @@
         <v>1850</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>1843</v>
@@ -747,21 +808,21 @@
         <v>1840</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>1874</v>
@@ -770,15 +831,15 @@
         <v>1870</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>1869</v>
@@ -787,18 +848,18 @@
         <v>1860</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>1898</v>
@@ -807,18 +868,18 @@
         <v>1890</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>1914</v>
@@ -827,18 +888,18 @@
         <v>1910</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>1887</v>
@@ -847,18 +908,18 @@
         <v>1880</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>1907</v>
@@ -867,11 +928,10 @@
         <v>1900</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/additional/simplified/indirect/tsv/metadata_indirect.xlsx
+++ b/data/additional/simplified/indirect/tsv/metadata_indirect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_RW\corpus\data\additional\simplified\indirect\tsv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5565AF20-A333-4703-90C0-9016F832B080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF0A500-EAD3-4710-85B5-645410959E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9075" yWindow="1620" windowWidth="24660" windowHeight="14400" xr2:uid="{8184E3B3-6768-47D5-9D50-5635465A3E84}"/>
+    <workbookView xWindow="4860" yWindow="3075" windowWidth="24660" windowHeight="14400" xr2:uid="{8184E3B3-6768-47D5-9D50-5635465A3E84}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>fictional</t>
   </si>
   <si>
-    <t>rwk_digbib_938.tsv</t>
-  </si>
-  <si>
     <t>Büchner, Luise</t>
   </si>
   <si>
@@ -88,72 +85,48 @@
     <t>yes</t>
   </si>
   <si>
-    <t>rwk_digbib_1041.tsv</t>
-  </si>
-  <si>
     <t>Christen, Ada</t>
   </si>
   <si>
     <t>Nachbar Krippelmacher</t>
   </si>
   <si>
-    <t>rwk_digbib_1180.tsv</t>
-  </si>
-  <si>
     <t>Franzos, Karl Emil</t>
   </si>
   <si>
     <t>Baron Schmule</t>
   </si>
   <si>
-    <t>rwk_digbib_1310.tsv</t>
-  </si>
-  <si>
     <t>Janitschek, Maria</t>
   </si>
   <si>
     <t>Das neue Weib</t>
   </si>
   <si>
-    <t>rwk_digbib_1996.tsv</t>
-  </si>
-  <si>
     <t>Meyrink, Gustav</t>
   </si>
   <si>
     <t>Der Mann auf der Flasche</t>
   </si>
   <si>
-    <t>rwk_digbib_2030.tsv</t>
-  </si>
-  <si>
     <t>Mörike, Eduard</t>
   </si>
   <si>
     <t>Die Hand der Jezerte</t>
   </si>
   <si>
-    <t>rwk_digbib_2477.tsv</t>
-  </si>
-  <si>
     <t>Poe, Edgar Allan</t>
   </si>
   <si>
     <t>Von Kempelen und seine Entdeckung</t>
   </si>
   <si>
-    <t>rwk_digbib_3004.tsv</t>
-  </si>
-  <si>
     <t>Schnitzler, Arthur</t>
   </si>
   <si>
     <t>Der Sohn</t>
   </si>
   <si>
-    <t>rwk_mkhz_1852.tsv</t>
-  </si>
-  <si>
     <t>Die Parteien in Preußen. Die Ereignisse in Kurhessen. Deutschland. Belgien.</t>
   </si>
   <si>
@@ -163,15 +136,9 @@
     <t>no</t>
   </si>
   <si>
-    <t>rwk_mkhz_4995.tsv</t>
-  </si>
-  <si>
     <t>pfennig</t>
   </si>
   <si>
-    <t>rwk_mkhz_5942.tsv</t>
-  </si>
-  <si>
     <t>Cabet, Étienne</t>
   </si>
   <si>
@@ -181,46 +148,79 @@
     <t>social</t>
   </si>
   <si>
-    <t>rwk_mkhz_6380.tsv</t>
-  </si>
-  <si>
     <t>sonntagsblatt</t>
   </si>
   <si>
-    <t>rwk_mkhz_10560.tsv</t>
-  </si>
-  <si>
     <t>Theater-Festvorstellung am 2. December. Vorbereitungen zur Illumination. Personales. Aus dem Stadtverordneten-Collegium. Jubiläums-Fest-Concert des Musik-Vereins. Vom Männergesangverein. Turnhallen-Bau.(Eine Spende. Gastspiel. Vom ersten Olmützer Fischerei-Verein. Fabriksverkauf. Weihnachtsbescheerung an der Paulowitzer Volksschule. Silberne Hochzeit. Vom Sonntage. Vierhalle-Uebernahme. Von der freiw. Feuerwehr in Neustift. Fahrbegünstigung. Freiwillig dem Hungertode geweiht. Die Verpachtung der Mauthstellen in M.-Weißkirchen, Leipnik und P?aslawitz. Dilettantentheater in Hombok. Das letzte Jahr des Jahrhunderts. Gebissen.</t>
   </si>
   <si>
     <t>maehrisches</t>
   </si>
   <si>
-    <t>rwk_mkhz_11194.tsv</t>
-  </si>
-  <si>
     <t>Gemeinderat.(Sitzung vom 18. Juli.) Die Durchführung der Schulreform. Solenne Kundgebung für das friedliche Zusammenleben der Nationen. Aus dem Landesschulrat.(Sitzung vom 11. Juli 1914.) Frau Josefine Brunstein gestorben. Auszeichnung. Ernennungen. Von der Landesregierung. Aus dem Rathause. Zum Lemberger Hygiene-Kongreß. Szewczenkofeier. Zur neuen Militärstrafprozeßordnung. Kabarett der Gesellschaft der Kunstfreunde. Ernteurlaubertransport. Gewerbeverein „Cintracht“. Festnahme berüchtigter Taschendiebe. Unfall oder boshafte Tat? Selbstmordversuch wegen eines Hundes. Diebstahl. Pilzvergiftung.</t>
   </si>
   <si>
     <t>czernowitzer</t>
   </si>
   <si>
-    <t>rwk_mkhz_20044.tsv</t>
-  </si>
-  <si>
     <t>— St. Gallen. — Oberland. — Gaster. — Gaster. — Amden. — Wattwil. — Schlag auf Schlag. — Uznach. — Eschenbach. — Milchverkäufe. — Landsturmeintheilung in Goldingen.</t>
   </si>
   <si>
     <t>stgaller</t>
   </si>
   <si>
-    <t>rwk_mkhz_20363.tsv</t>
-  </si>
-  <si>
     <t>Gemeinderatssitzung. Eine Abordnung beim Bürgermeister. Spende. Eine große Südbahnerversammlung. Eine interessante Schaustellung. Malschule-Ausstellung. Studienreise. Das „Geisterhäusl“. Maschinelle Holzbearbeitung. Wolkenbruch und Überschwemmungen. Laudwirtschaftlicher Verein Rothwein. 8000 Kronen an unsere Hausfrauen ausbezahlt.</t>
   </si>
   <si>
     <t>marburger</t>
+  </si>
+  <si>
+    <t>rwz_ind_digbib_938.tsv</t>
+  </si>
+  <si>
+    <t>rwz_ind_digbib_1041.tsv</t>
+  </si>
+  <si>
+    <t>rwz_ind_digbib_1180.tsv</t>
+  </si>
+  <si>
+    <t>rwz_ind_digbib_1310.tsv</t>
+  </si>
+  <si>
+    <t>rwz_ind_digbib_1996.tsv</t>
+  </si>
+  <si>
+    <t>rwz_ind_digbib_2030.tsv</t>
+  </si>
+  <si>
+    <t>rwz_ind_digbib_2477.tsv</t>
+  </si>
+  <si>
+    <t>rwz_ind_digbib_3004.tsv</t>
+  </si>
+  <si>
+    <t>rwz_ind_mkhz_1852.tsv</t>
+  </si>
+  <si>
+    <t>rwz_ind_mkhz_4995.tsv</t>
+  </si>
+  <si>
+    <t>rwz_ind_mkhz_5942.tsv</t>
+  </si>
+  <si>
+    <t>rwz_ind_mkhz_6380.tsv</t>
+  </si>
+  <si>
+    <t>rwz_ind_mkhz_10560.tsv</t>
+  </si>
+  <si>
+    <t>rwz_ind_mkhz_11194.tsv</t>
+  </si>
+  <si>
+    <t>rwz_ind_mkhz_20044.tsv</t>
+  </si>
+  <si>
+    <t>rwz_ind_mkhz_20363.tsv</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33208051-11FE-4DF5-9E76-AD75590CAA32}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -616,13 +618,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="E2">
         <v>1868</v>
@@ -631,18 +633,18 @@
         <v>1860</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="E3">
         <v>1884</v>
@@ -651,18 +653,18 @@
         <v>1880</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>1877</v>
@@ -671,18 +673,18 @@
         <v>1870</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>1902</v>
@@ -691,18 +693,18 @@
         <v>1900</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>1913</v>
@@ -711,18 +713,18 @@
         <v>1910</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>1853</v>
@@ -731,18 +733,18 @@
         <v>1850</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1849</v>
@@ -751,18 +753,18 @@
         <v>1840</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>1892</v>
@@ -771,18 +773,18 @@
         <v>1890</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1850</v>
@@ -791,15 +793,15 @@
         <v>1850</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>1843</v>
@@ -808,21 +810,21 @@
         <v>1840</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>1874</v>
@@ -831,15 +833,15 @@
         <v>1870</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>1869</v>
@@ -848,18 +850,18 @@
         <v>1860</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>1898</v>
@@ -868,18 +870,18 @@
         <v>1890</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>1914</v>
@@ -888,18 +890,18 @@
         <v>1910</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>1887</v>
@@ -908,18 +910,18 @@
         <v>1880</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>1907</v>
@@ -928,7 +930,7 @@
         <v>1900</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
